--- a/xls/AVČR-Slovanský ústav AV ČR, v. v. i._All.xlsx
+++ b/xls/AVČR-Slovanský ústav AV ČR, v. v. i._All.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="158">
   <si>
     <t>YEAR</t>
   </si>
@@ -73,6 +73,18 @@
     <t>VO</t>
   </si>
   <si>
+    <t>CATEGORY_RIV_SHORT</t>
+  </si>
+  <si>
+    <t>Record_FOS_category</t>
+  </si>
+  <si>
+    <t>IsLocalJournal</t>
+  </si>
+  <si>
+    <t>IsPredatoryJournal</t>
+  </si>
+  <si>
     <t>Jsc</t>
   </si>
   <si>
@@ -458,6 +470,24 @@
   </si>
   <si>
     <t>AVČR-Slovanský ústav AV ČR, v. v. i.</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>AI</t>
+  </si>
+  <si>
+    <t>AJ</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>Humanities and the Arts</t>
   </si>
 </sst>
 </file>
@@ -815,7 +845,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S44"/>
+  <dimension ref="A1:W44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -826,7 +856,7 @@
     <col min="8" max="8" width="40.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -884,13 +914,25 @@
       <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2">
         <v>2011</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -899,48 +941,60 @@
         <v>13.296</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="K2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="L2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="O2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="P2">
         <v>68378017</v>
       </c>
       <c r="Q2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="R2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="S2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
+        <v>151</v>
+      </c>
+      <c r="T2" t="s">
+        <v>152</v>
+      </c>
+      <c r="U2" t="s">
+        <v>157</v>
+      </c>
+      <c r="V2" t="b">
+        <v>1</v>
+      </c>
+      <c r="W2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3">
         <v>2014</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -949,48 +1003,60 @@
         <v>11.017161</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G3" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H3" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I3" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="K3" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="L3" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="O3" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="P3">
         <v>68378017</v>
       </c>
       <c r="Q3" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="R3" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="S3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
+        <v>151</v>
+      </c>
+      <c r="T3" t="s">
+        <v>153</v>
+      </c>
+      <c r="U3" t="s">
+        <v>157</v>
+      </c>
+      <c r="V3" t="b">
+        <v>1</v>
+      </c>
+      <c r="W3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4">
         <v>2012</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -999,48 +1065,60 @@
         <v>12.233</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G4" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H4" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I4" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="K4" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="L4" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="O4" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="P4">
         <v>68378017</v>
       </c>
       <c r="Q4" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="R4" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="S4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
+        <v>151</v>
+      </c>
+      <c r="T4" t="s">
+        <v>154</v>
+      </c>
+      <c r="U4" t="s">
+        <v>157</v>
+      </c>
+      <c r="V4" t="b">
+        <v>1</v>
+      </c>
+      <c r="W4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5">
         <v>2012</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1049,48 +1127,60 @@
         <v>12.233</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G5" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H5" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I5" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="K5" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="L5" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="O5" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="P5">
         <v>68378017</v>
       </c>
       <c r="Q5" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="R5" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="S5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19">
+        <v>151</v>
+      </c>
+      <c r="T5" t="s">
+        <v>154</v>
+      </c>
+      <c r="U5" t="s">
+        <v>157</v>
+      </c>
+      <c r="V5" t="b">
+        <v>1</v>
+      </c>
+      <c r="W5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6">
         <v>2012</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1099,48 +1189,60 @@
         <v>12.233</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G6" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H6" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I6" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="K6" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="L6" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="O6" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="P6">
         <v>68378017</v>
       </c>
       <c r="Q6" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="R6" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="S6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
+        <v>151</v>
+      </c>
+      <c r="T6" t="s">
+        <v>154</v>
+      </c>
+      <c r="U6" t="s">
+        <v>157</v>
+      </c>
+      <c r="V6" t="b">
+        <v>1</v>
+      </c>
+      <c r="W6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7">
         <v>2013</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1149,48 +1251,60 @@
         <v>14.889</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="I7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="K7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="L7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="O7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="P7">
         <v>68378017</v>
       </c>
       <c r="Q7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="R7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="S7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
+        <v>151</v>
+      </c>
+      <c r="T7" t="s">
+        <v>153</v>
+      </c>
+      <c r="U7" t="s">
+        <v>157</v>
+      </c>
+      <c r="V7" t="b">
+        <v>0</v>
+      </c>
+      <c r="W7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8">
         <v>2014</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1199,48 +1313,60 @@
         <v>17.072027</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F8" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G8" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="H8" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="I8" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="K8" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="L8" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="O8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="P8">
         <v>68378017</v>
       </c>
       <c r="Q8" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="R8" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="S8" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
+        <v>151</v>
+      </c>
+      <c r="T8" t="s">
+        <v>154</v>
+      </c>
+      <c r="U8" t="s">
+        <v>157</v>
+      </c>
+      <c r="V8" t="b">
+        <v>0</v>
+      </c>
+      <c r="W8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9">
         <v>2014</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1249,48 +1375,60 @@
         <v>9.850308399999999</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F9" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G9" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H9" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I9" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="K9" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="L9" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="O9" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="P9">
         <v>68378017</v>
       </c>
       <c r="Q9" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="R9" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="S9" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19">
+        <v>151</v>
+      </c>
+      <c r="T9" t="s">
+        <v>155</v>
+      </c>
+      <c r="U9" t="s">
+        <v>157</v>
+      </c>
+      <c r="V9" t="b">
+        <v>1</v>
+      </c>
+      <c r="W9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10">
         <v>2012</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1299,48 +1437,60 @@
         <v>11.911</v>
       </c>
       <c r="E10" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G10" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H10" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="I10" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="K10" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="L10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="O10" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="P10">
         <v>68378017</v>
       </c>
       <c r="Q10" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="R10" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="S10" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19">
+        <v>151</v>
+      </c>
+      <c r="T10" t="s">
+        <v>153</v>
+      </c>
+      <c r="U10" t="s">
+        <v>157</v>
+      </c>
+      <c r="V10" t="b">
+        <v>0</v>
+      </c>
+      <c r="W10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11">
         <v>2013</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -1349,48 +1499,60 @@
         <v>15.682</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F11" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G11" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H11" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I11" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="K11" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="L11" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="O11" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="P11">
         <v>68378017</v>
       </c>
       <c r="Q11" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="R11" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="S11" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
+        <v>151</v>
+      </c>
+      <c r="T11" t="s">
+        <v>154</v>
+      </c>
+      <c r="U11" t="s">
+        <v>157</v>
+      </c>
+      <c r="V11" t="b">
+        <v>1</v>
+      </c>
+      <c r="W11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12">
         <v>2013</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1399,48 +1561,60 @@
         <v>15.682</v>
       </c>
       <c r="E12" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F12" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G12" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H12" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I12" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="K12" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="L12" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="O12" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="P12">
         <v>68378017</v>
       </c>
       <c r="Q12" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="R12" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="S12" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19">
+        <v>151</v>
+      </c>
+      <c r="T12" t="s">
+        <v>154</v>
+      </c>
+      <c r="U12" t="s">
+        <v>157</v>
+      </c>
+      <c r="V12" t="b">
+        <v>1</v>
+      </c>
+      <c r="W12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13">
         <v>2011</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1449,48 +1623,60 @@
         <v>13.296</v>
       </c>
       <c r="E13" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F13" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G13" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H13" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I13" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="K13" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="L13" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="O13" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="P13">
         <v>68378017</v>
       </c>
       <c r="Q13" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="R13" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="S13" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19">
+        <v>151</v>
+      </c>
+      <c r="T13" t="s">
+        <v>154</v>
+      </c>
+      <c r="U13" t="s">
+        <v>157</v>
+      </c>
+      <c r="V13" t="b">
+        <v>1</v>
+      </c>
+      <c r="W13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14">
         <v>2011</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1499,48 +1685,60 @@
         <v>13.296</v>
       </c>
       <c r="E14" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F14" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G14" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H14" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I14" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="K14" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="L14" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="O14" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="P14">
         <v>68378017</v>
       </c>
       <c r="Q14" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="R14" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="S14" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19">
+        <v>151</v>
+      </c>
+      <c r="T14" t="s">
+        <v>154</v>
+      </c>
+      <c r="U14" t="s">
+        <v>157</v>
+      </c>
+      <c r="V14" t="b">
+        <v>1</v>
+      </c>
+      <c r="W14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15">
         <v>2012</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -1549,48 +1747,60 @@
         <v>12.233</v>
       </c>
       <c r="E15" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F15" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G15" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H15" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I15" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="K15" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="L15" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="O15" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="P15">
         <v>68378017</v>
       </c>
       <c r="Q15" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="R15" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="S15" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19">
+        <v>151</v>
+      </c>
+      <c r="T15" t="s">
+        <v>155</v>
+      </c>
+      <c r="U15" t="s">
+        <v>157</v>
+      </c>
+      <c r="V15" t="b">
+        <v>1</v>
+      </c>
+      <c r="W15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16">
         <v>2015</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -1599,48 +1809,60 @@
         <v>9.850308399999999</v>
       </c>
       <c r="E16" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F16" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G16" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H16" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I16" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="K16" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="L16" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="O16" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="P16">
         <v>68378017</v>
       </c>
       <c r="Q16" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="R16" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="S16" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19">
+        <v>151</v>
+      </c>
+      <c r="T16" t="s">
+        <v>154</v>
+      </c>
+      <c r="U16" t="s">
+        <v>157</v>
+      </c>
+      <c r="V16" t="b">
+        <v>1</v>
+      </c>
+      <c r="W16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
       <c r="A17">
         <v>2012</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -1649,48 +1871,60 @@
         <v>11.911</v>
       </c>
       <c r="E17" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F17" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G17" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H17" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="I17" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="K17" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="L17" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="O17" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="P17">
         <v>68378017</v>
       </c>
       <c r="Q17" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="R17" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="S17" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19">
+        <v>151</v>
+      </c>
+      <c r="T17" t="s">
+        <v>153</v>
+      </c>
+      <c r="U17" t="s">
+        <v>157</v>
+      </c>
+      <c r="V17" t="b">
+        <v>0</v>
+      </c>
+      <c r="W17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
       <c r="A18">
         <v>2012</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -1699,48 +1933,60 @@
         <v>12.233</v>
       </c>
       <c r="E18" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F18" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G18" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H18" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I18" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="K18" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="L18" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="O18" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="P18">
         <v>68378017</v>
       </c>
       <c r="Q18" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="R18" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="S18" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19">
+        <v>151</v>
+      </c>
+      <c r="T18" t="s">
+        <v>155</v>
+      </c>
+      <c r="U18" t="s">
+        <v>157</v>
+      </c>
+      <c r="V18" t="b">
+        <v>1</v>
+      </c>
+      <c r="W18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
       <c r="A19">
         <v>2014</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -1749,48 +1995,60 @@
         <v>11.017161</v>
       </c>
       <c r="E19" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F19" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G19" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H19" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I19" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="K19" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="L19" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="O19" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="P19">
         <v>68378017</v>
       </c>
       <c r="Q19" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="R19" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="S19" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19">
+        <v>151</v>
+      </c>
+      <c r="T19" t="s">
+        <v>154</v>
+      </c>
+      <c r="U19" t="s">
+        <v>157</v>
+      </c>
+      <c r="V19" t="b">
+        <v>1</v>
+      </c>
+      <c r="W19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
       <c r="A20">
         <v>2015</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -1799,48 +2057,60 @@
         <v>9.0322981</v>
       </c>
       <c r="E20" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F20" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G20" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="H20" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="I20" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="K20" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="L20" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="O20" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="P20">
         <v>68378017</v>
       </c>
       <c r="Q20" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="R20" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="S20" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19">
+        <v>151</v>
+      </c>
+      <c r="T20" t="s">
+        <v>155</v>
+      </c>
+      <c r="U20" t="s">
+        <v>157</v>
+      </c>
+      <c r="V20" t="b">
+        <v>0</v>
+      </c>
+      <c r="W20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
       <c r="A21">
         <v>2014</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -1849,48 +2119,60 @@
         <v>11.017161</v>
       </c>
       <c r="E21" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F21" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G21" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H21" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="I21" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="K21" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="L21" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="O21" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="P21">
         <v>68378017</v>
       </c>
       <c r="Q21" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="R21" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="S21" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19">
+        <v>151</v>
+      </c>
+      <c r="T21" t="s">
+        <v>153</v>
+      </c>
+      <c r="U21" t="s">
+        <v>157</v>
+      </c>
+      <c r="V21" t="b">
+        <v>0</v>
+      </c>
+      <c r="W21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
       <c r="A22">
         <v>2012</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -1899,48 +2181,60 @@
         <v>6.2280002</v>
       </c>
       <c r="E22" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F22" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G22" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H22" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I22" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="K22" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="L22" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="O22" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="P22">
         <v>68378017</v>
       </c>
       <c r="Q22" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="R22" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="S22" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19">
+        <v>151</v>
+      </c>
+      <c r="T22" t="s">
+        <v>156</v>
+      </c>
+      <c r="U22" t="s">
+        <v>157</v>
+      </c>
+      <c r="V22" t="b">
+        <v>1</v>
+      </c>
+      <c r="W22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
       <c r="A23">
         <v>2012</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -1949,48 +2243,60 @@
         <v>12.233</v>
       </c>
       <c r="E23" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F23" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G23" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H23" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I23" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="K23" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="L23" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="O23" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="P23">
         <v>68378017</v>
       </c>
       <c r="Q23" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="R23" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="S23" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19">
+        <v>151</v>
+      </c>
+      <c r="T23" t="s">
+        <v>154</v>
+      </c>
+      <c r="U23" t="s">
+        <v>157</v>
+      </c>
+      <c r="V23" t="b">
+        <v>1</v>
+      </c>
+      <c r="W23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
       <c r="A24">
         <v>2012</v>
       </c>
       <c r="B24" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -1999,48 +2305,60 @@
         <v>12.233</v>
       </c>
       <c r="E24" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F24" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G24" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H24" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I24" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="K24" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="L24" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="O24" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="P24">
         <v>68378017</v>
       </c>
       <c r="Q24" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="R24" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="S24" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19">
+        <v>151</v>
+      </c>
+      <c r="T24" t="s">
+        <v>155</v>
+      </c>
+      <c r="U24" t="s">
+        <v>157</v>
+      </c>
+      <c r="V24" t="b">
+        <v>1</v>
+      </c>
+      <c r="W24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
       <c r="A25">
         <v>2011</v>
       </c>
       <c r="B25" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -2049,48 +2367,60 @@
         <v>13.296</v>
       </c>
       <c r="E25" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F25" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G25" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H25" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I25" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="K25" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="L25" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="O25" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="P25">
         <v>68378017</v>
       </c>
       <c r="Q25" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="R25" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="S25" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19">
+        <v>151</v>
+      </c>
+      <c r="T25" t="s">
+        <v>156</v>
+      </c>
+      <c r="U25" t="s">
+        <v>157</v>
+      </c>
+      <c r="V25" t="b">
+        <v>1</v>
+      </c>
+      <c r="W25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
       <c r="A26">
         <v>2012</v>
       </c>
       <c r="B26" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -2099,48 +2429,60 @@
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F26" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G26" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="H26" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="I26" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="K26" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="L26" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="O26" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="P26">
         <v>68378017</v>
       </c>
       <c r="Q26" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="R26" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="S26" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19">
+        <v>151</v>
+      </c>
+      <c r="T26" t="s">
+        <v>154</v>
+      </c>
+      <c r="U26" t="s">
+        <v>157</v>
+      </c>
+      <c r="V26" t="b">
+        <v>0</v>
+      </c>
+      <c r="W26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
       <c r="A27">
         <v>2011</v>
       </c>
       <c r="B27" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -2149,48 +2491,60 @@
         <v>13.296</v>
       </c>
       <c r="E27" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F27" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G27" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H27" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I27" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="K27" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="L27" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="O27" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="P27">
         <v>68378017</v>
       </c>
       <c r="Q27" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="R27" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="S27" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19">
+        <v>151</v>
+      </c>
+      <c r="T27" t="s">
+        <v>155</v>
+      </c>
+      <c r="U27" t="s">
+        <v>157</v>
+      </c>
+      <c r="V27" t="b">
+        <v>1</v>
+      </c>
+      <c r="W27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
       <c r="A28">
         <v>2012</v>
       </c>
       <c r="B28" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -2199,48 +2553,60 @@
         <v>12.233</v>
       </c>
       <c r="E28" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F28" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G28" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H28" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I28" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="K28" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="L28" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="O28" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="P28">
         <v>68378017</v>
       </c>
       <c r="Q28" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="R28" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="S28" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19">
+        <v>151</v>
+      </c>
+      <c r="T28" t="s">
+        <v>154</v>
+      </c>
+      <c r="U28" t="s">
+        <v>157</v>
+      </c>
+      <c r="V28" t="b">
+        <v>1</v>
+      </c>
+      <c r="W28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
       <c r="A29">
         <v>2012</v>
       </c>
       <c r="B29" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -2249,48 +2615,60 @@
         <v>12.233</v>
       </c>
       <c r="E29" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F29" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G29" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H29" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I29" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="K29" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="L29" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="O29" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="P29">
         <v>68378017</v>
       </c>
       <c r="Q29" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="R29" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="S29" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19">
+        <v>151</v>
+      </c>
+      <c r="T29" t="s">
+        <v>155</v>
+      </c>
+      <c r="U29" t="s">
+        <v>157</v>
+      </c>
+      <c r="V29" t="b">
+        <v>1</v>
+      </c>
+      <c r="W29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
       <c r="A30">
         <v>2011</v>
       </c>
       <c r="B30" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -2299,48 +2677,60 @@
         <v>13.296</v>
       </c>
       <c r="E30" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F30" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G30" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H30" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I30" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="K30" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="L30" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="O30" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="P30">
         <v>68378017</v>
       </c>
       <c r="Q30" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="R30" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="S30" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19">
+        <v>151</v>
+      </c>
+      <c r="T30" t="s">
+        <v>154</v>
+      </c>
+      <c r="U30" t="s">
+        <v>157</v>
+      </c>
+      <c r="V30" t="b">
+        <v>1</v>
+      </c>
+      <c r="W30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
       <c r="A31">
         <v>2014</v>
       </c>
       <c r="B31" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -2349,48 +2739,60 @@
         <v>9.850308399999999</v>
       </c>
       <c r="E31" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F31" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G31" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H31" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I31" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="K31" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="L31" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="O31" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="P31">
         <v>68378017</v>
       </c>
       <c r="Q31" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="R31" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="S31" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19">
+        <v>151</v>
+      </c>
+      <c r="T31" t="s">
+        <v>155</v>
+      </c>
+      <c r="U31" t="s">
+        <v>157</v>
+      </c>
+      <c r="V31" t="b">
+        <v>1</v>
+      </c>
+      <c r="W31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
       <c r="A32">
         <v>2012</v>
       </c>
       <c r="B32" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -2399,48 +2801,60 @@
         <v>12.233</v>
       </c>
       <c r="E32" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F32" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G32" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H32" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I32" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="K32" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="L32" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="O32" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="P32">
         <v>68378017</v>
       </c>
       <c r="Q32" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="R32" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="S32" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19">
+        <v>151</v>
+      </c>
+      <c r="T32" t="s">
+        <v>154</v>
+      </c>
+      <c r="U32" t="s">
+        <v>157</v>
+      </c>
+      <c r="V32" t="b">
+        <v>1</v>
+      </c>
+      <c r="W32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
       <c r="A33">
         <v>2011</v>
       </c>
       <c r="B33" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -2449,48 +2863,60 @@
         <v>13.296</v>
       </c>
       <c r="E33" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F33" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G33" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I33" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="K33" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="L33" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="O33" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="P33">
         <v>68378017</v>
       </c>
       <c r="Q33" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="R33" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="S33" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19">
+        <v>151</v>
+      </c>
+      <c r="T33" t="s">
+        <v>154</v>
+      </c>
+      <c r="U33" t="s">
+        <v>157</v>
+      </c>
+      <c r="V33" t="b">
+        <v>1</v>
+      </c>
+      <c r="W33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
       <c r="A34">
         <v>2013</v>
       </c>
       <c r="B34" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -2499,48 +2925,60 @@
         <v>14.889</v>
       </c>
       <c r="E34" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F34" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G34" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H34" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="I34" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="K34" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="L34" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="O34" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="P34">
         <v>68378017</v>
       </c>
       <c r="Q34" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="R34" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="S34" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19">
+        <v>151</v>
+      </c>
+      <c r="T34" t="s">
+        <v>153</v>
+      </c>
+      <c r="U34" t="s">
+        <v>157</v>
+      </c>
+      <c r="V34" t="b">
+        <v>0</v>
+      </c>
+      <c r="W34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
       <c r="A35">
         <v>2013</v>
       </c>
       <c r="B35" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -2549,48 +2987,60 @@
         <v>15.68102</v>
       </c>
       <c r="E35" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G35" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H35" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I35" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="K35" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="L35" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="O35" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="P35">
         <v>68378017</v>
       </c>
       <c r="Q35" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="R35" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="S35" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19">
+        <v>151</v>
+      </c>
+      <c r="T35" t="s">
+        <v>155</v>
+      </c>
+      <c r="U35" t="s">
+        <v>157</v>
+      </c>
+      <c r="V35" t="b">
+        <v>1</v>
+      </c>
+      <c r="W35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
       <c r="A36">
         <v>2013</v>
       </c>
       <c r="B36" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -2599,48 +3049,60 @@
         <v>15.682</v>
       </c>
       <c r="E36" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F36" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G36" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H36" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I36" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="K36" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="L36" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="O36" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="P36">
         <v>68378017</v>
       </c>
       <c r="Q36" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="R36" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="S36" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19">
+        <v>151</v>
+      </c>
+      <c r="T36" t="s">
+        <v>155</v>
+      </c>
+      <c r="U36" t="s">
+        <v>157</v>
+      </c>
+      <c r="V36" t="b">
+        <v>1</v>
+      </c>
+      <c r="W36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
       <c r="A37">
         <v>2015</v>
       </c>
       <c r="B37" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -2649,48 +3111,60 @@
         <v>9.850308399999999</v>
       </c>
       <c r="E37" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F37" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G37" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H37" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I37" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="K37" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="L37" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="O37" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="P37">
         <v>68378017</v>
       </c>
       <c r="Q37" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="R37" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="S37" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19">
+        <v>151</v>
+      </c>
+      <c r="T37" t="s">
+        <v>155</v>
+      </c>
+      <c r="U37" t="s">
+        <v>157</v>
+      </c>
+      <c r="V37" t="b">
+        <v>1</v>
+      </c>
+      <c r="W37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
       <c r="A38">
         <v>2012</v>
       </c>
       <c r="B38" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -2699,48 +3173,60 @@
         <v>11.911</v>
       </c>
       <c r="E38" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F38" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G38" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H38" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="I38" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="K38" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="L38" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="O38" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="P38">
         <v>68378017</v>
       </c>
       <c r="Q38" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="R38" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="S38" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19">
+        <v>151</v>
+      </c>
+      <c r="T38" t="s">
+        <v>153</v>
+      </c>
+      <c r="U38" t="s">
+        <v>157</v>
+      </c>
+      <c r="V38" t="b">
+        <v>0</v>
+      </c>
+      <c r="W38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
       <c r="A39">
         <v>2011</v>
       </c>
       <c r="B39" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -2749,48 +3235,60 @@
         <v>13.296</v>
       </c>
       <c r="E39" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G39" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H39" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I39" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="K39" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="L39" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="O39" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="P39">
         <v>68378017</v>
       </c>
       <c r="Q39" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="R39" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="S39" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19">
+        <v>151</v>
+      </c>
+      <c r="T39" t="s">
+        <v>155</v>
+      </c>
+      <c r="U39" t="s">
+        <v>157</v>
+      </c>
+      <c r="V39" t="b">
+        <v>1</v>
+      </c>
+      <c r="W39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
       <c r="A40">
         <v>2012</v>
       </c>
       <c r="B40" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -2799,48 +3297,60 @@
         <v>11.911</v>
       </c>
       <c r="E40" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F40" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G40" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H40" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="I40" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="K40" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="L40" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="O40" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="P40">
         <v>68378017</v>
       </c>
       <c r="Q40" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="R40" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="S40" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19">
+        <v>151</v>
+      </c>
+      <c r="T40" t="s">
+        <v>153</v>
+      </c>
+      <c r="U40" t="s">
+        <v>157</v>
+      </c>
+      <c r="V40" t="b">
+        <v>0</v>
+      </c>
+      <c r="W40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
       <c r="A41">
         <v>2014</v>
       </c>
       <c r="B41" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -2849,48 +3359,60 @@
         <v>11.017161</v>
       </c>
       <c r="E41" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F41" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G41" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H41" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I41" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="K41" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="L41" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="O41" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="P41">
         <v>68378017</v>
       </c>
       <c r="Q41" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="R41" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="S41" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19">
+        <v>151</v>
+      </c>
+      <c r="T41" t="s">
+        <v>154</v>
+      </c>
+      <c r="U41" t="s">
+        <v>157</v>
+      </c>
+      <c r="V41" t="b">
+        <v>1</v>
+      </c>
+      <c r="W41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
       <c r="A42">
         <v>2012</v>
       </c>
       <c r="B42" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -2899,48 +3421,60 @@
         <v>12.233</v>
       </c>
       <c r="E42" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G42" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H42" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I42" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="K42" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="L42" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="O42" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="P42">
         <v>68378017</v>
       </c>
       <c r="Q42" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="R42" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="S42" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19">
+        <v>151</v>
+      </c>
+      <c r="T42" t="s">
+        <v>155</v>
+      </c>
+      <c r="U42" t="s">
+        <v>157</v>
+      </c>
+      <c r="V42" t="b">
+        <v>1</v>
+      </c>
+      <c r="W42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23">
       <c r="A43">
         <v>2013</v>
       </c>
       <c r="B43" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C43">
         <v>0.5</v>
@@ -2949,48 +3483,60 @@
         <v>11.853</v>
       </c>
       <c r="E43" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F43" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G43" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="H43" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="I43" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="K43" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="L43" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="O43" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="P43">
         <v>68378017</v>
       </c>
       <c r="Q43" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="R43" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="S43" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19">
+        <v>151</v>
+      </c>
+      <c r="T43" t="s">
+        <v>152</v>
+      </c>
+      <c r="U43" t="s">
+        <v>157</v>
+      </c>
+      <c r="V43" t="b">
+        <v>1</v>
+      </c>
+      <c r="W43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23">
       <c r="A44">
         <v>2011</v>
       </c>
       <c r="B44" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -2999,40 +3545,52 @@
         <v>13.296</v>
       </c>
       <c r="E44" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F44" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G44" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H44" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I44" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="K44" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="L44" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="O44" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="P44">
         <v>68378017</v>
       </c>
       <c r="Q44" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="R44" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="S44" t="s">
-        <v>147</v>
+        <v>151</v>
+      </c>
+      <c r="T44" t="s">
+        <v>155</v>
+      </c>
+      <c r="U44" t="s">
+        <v>157</v>
+      </c>
+      <c r="V44" t="b">
+        <v>1</v>
+      </c>
+      <c r="W44" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/xls/AVČR-Slovanský ústav AV ČR, v. v. i._All.xlsx
+++ b/xls/AVČR-Slovanský ústav AV ČR, v. v. i._All.xlsx
@@ -79,10 +79,10 @@
     <t>Record_FOS_category</t>
   </si>
   <si>
-    <t>IsLocalJournal</t>
-  </si>
-  <si>
-    <t>IsPredatoryJournal</t>
+    <t>Místní časopis</t>
+  </si>
+  <si>
+    <t>Predátorský časopis</t>
   </si>
   <si>
     <t>Jsc</t>
